--- a/LBD Deployment Helper - 8 Node.xlsx
+++ b/LBD Deployment Helper - 8 Node.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Clouse\OneDrive - mcaConnect, LLC\Personal\Github\LBD Helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Clouse\Downloads\LBDDeploymentHelper-master\LBDDeploymentHelper-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{214A0A41-9474-4E48-AE6A-47ED55DFCC9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CFC82F01-4E73-4665-BE0A-2C522634C2E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEEDBCC-DEA4-4E20-8A84-283C20A48271}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>DNS Name</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>Where the Infrastructre scripts for VMs will be shared</t>
+  </si>
+  <si>
+    <t>AXDWAdmin</t>
+  </si>
+  <si>
+    <t>AXDWRuntimeuser</t>
   </si>
 </sst>
 </file>
@@ -369,8 +375,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB3A15F9-075E-4B5F-9DB2-925FCAA04ECF}" name="Table3" displayName="Table3" ref="A16:D23" totalsRowShown="0">
-  <autoFilter ref="A16:D23" xr:uid="{4A5EB2B6-A25A-4372-A0E8-AA6F9AF94FCC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB3A15F9-075E-4B5F-9DB2-925FCAA04ECF}" name="Table3" displayName="Table3" ref="A16:D25" totalsRowShown="0">
+  <autoFilter ref="A16:D25" xr:uid="{4A5EB2B6-A25A-4372-A0E8-AA6F9AF94FCC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B243BC49-71C0-46BC-9631-68240D16A6A9}" name="Name"/>
     <tableColumn id="2" xr3:uid="{DCFE744D-3622-429E-A30A-05B766944BD6}" name="Account Name" dataDxfId="0">
@@ -690,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A87E3A0-AE97-4BFF-831F-BBF3B46CBBC6}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="A24" sqref="A24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1095,38 @@
       </c>
       <c r="D23" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="str">
+        <f>LEFT(A24,4) &amp; $G$2 &amp; MID(A24,5,10)</f>
+        <v>AXDWTESTAdmin</v>
+      </c>
+      <c r="C24" t="str">
+        <f xml:space="preserve"> LEFT(A24,4) &amp; $G$2 &amp; MID(A24,5,10)</f>
+        <v>AXDWTESTAdmin</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="str">
+        <f>LEFT(A25,4) &amp; $G$2 &amp; MID(A25,5,11)</f>
+        <v>AXDWTESTRuntimeuser</v>
+      </c>
+      <c r="C25" t="str">
+        <f xml:space="preserve"> LEFT(A25,4) &amp; $G$2 &amp; MID(A25,5,11)</f>
+        <v>AXDWTESTRuntimeuser</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
